--- a/ESADE/NVCP/Cost analysis from Carol.xlsx
+++ b/ESADE/NVCP/Cost analysis from Carol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87f47cbd7190d7c9/Documents/RLT/Git_clone_repo/EMINE_22_24/ESADE/NVCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{AA068C50-2750-4897-8A17-00B029B65E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F25457-717C-4023-916F-CEC64417AB37}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{AA068C50-2750-4897-8A17-00B029B65E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD05C274-F690-495B-8DFB-86EF821E4F94}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="786" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="786" firstSheet="8" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Year 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Annual P&amp;L" sheetId="4" r:id="rId8"/>
     <sheet name="Cash flow" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,24 +44,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+  <si>
+    <t>TIME</t>
+  </si>
   <si>
     <t>months</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>SALES</t>
   </si>
   <si>
     <t>units sold</t>
   </si>
   <si>
-    <t>total</t>
+    <t>sale price/unit</t>
   </si>
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>sale price/unit</t>
+    <t>MANUFACTURING</t>
   </si>
   <si>
-    <t>Total cost</t>
+    <t>material cost</t>
+  </si>
+  <si>
+    <t>sensor cost</t>
+  </si>
+  <si>
+    <t>assembly cost</t>
+  </si>
+  <si>
+    <t>total manufacturing cost</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
   <si>
     <t>transport cost</t>
@@ -68,19 +100,13 @@
     <t>Salaries cost</t>
   </si>
   <si>
-    <t>SALES</t>
-  </si>
-  <si>
-    <t>MANUFACTURING</t>
-  </si>
-  <si>
-    <t>OPERATION</t>
-  </si>
-  <si>
     <t>lawyers</t>
   </si>
   <si>
     <t>consultants</t>
+  </si>
+  <si>
+    <t>quality control</t>
   </si>
   <si>
     <t>sales expenditure</t>
@@ -92,43 +118,39 @@
     <t>Total operational cost</t>
   </si>
   <si>
-    <t>material cost</t>
+    <t>EBITDA</t>
   </si>
   <si>
-    <t>sensor cost</t>
+    <t>Total cost</t>
   </si>
   <si>
-    <t>total manufacturing cost</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>quality control</t>
+    <t>Cumulative EBITDA</t>
   </si>
   <si>
     <t>assrmbly cost</t>
   </si>
   <si>
-    <t>assembly cost</t>
+    <t>time (months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumul. EBITDA ($)
+</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBITDA ($)
+</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Initial cash</t>
   </si>
   <si>
     <t>Investor contribution</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Investments</t>
@@ -140,31 +162,28 @@
     <t>Depreciation &amp; Amortization</t>
   </si>
   <si>
-    <t>Tangible assets</t>
-  </si>
-  <si>
     <t>Gross tangible assets</t>
   </si>
   <si>
     <t>Accumulated D&amp;A</t>
   </si>
   <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
-    <t>Cumulative EBITDA</t>
-  </si>
-  <si>
-    <t>D&amp;A</t>
+    <t>Tangible assets</t>
   </si>
   <si>
     <t>EBIT</t>
   </si>
   <si>
+    <t>Interest</t>
+  </si>
+  <si>
     <t>Taxes</t>
   </si>
   <si>
-    <t>Interest</t>
+    <t>EAT (Profit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed cost </t>
   </si>
   <si>
     <t>EAT</t>
@@ -173,33 +192,14 @@
     <t xml:space="preserve">Cash </t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed cost </t>
-  </si>
-  <si>
-    <t>EAT (Profit)</t>
-  </si>
-  <si>
     <t>Cumulative cash</t>
-  </si>
-  <si>
-    <t>EBITDA ($)</t>
-  </si>
-  <si>
-    <t>time (months)</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumul. EBITDA ($)
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,15 +303,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -358,14 +358,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Business</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Business Projection</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Projection</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(cumul.)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -413,7 +431,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA ($)</c:v>
+                  <c:v>Cumul. EBITDA ($)
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1010,8 +1029,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>EBITDA ($)</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Cumul. EBITDA ($)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1151,27 +1177,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1190,39 +1202,6 @@
               <a:t>Business Projection</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(cumul.)</a:t>
-            </a:r>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -1237,27 +1216,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1283,7 +1248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumul. EBITDA ($)
+                  <c:v>EBITDA ($)
 </c:v>
                 </c:pt>
               </c:strCache>
@@ -1315,191 +1280,188 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>projection!$A$67:$A$127</c:f>
+              <c:f>projection!$A$67:$A$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1507,192 +1469,189 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>projection!$B$67:$B$127</c:f>
+              <c:f>projection!$B$67:$B$126</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-85000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-85000</c:v>
+                  <c:v>-112000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-282000</c:v>
+                  <c:v>-65000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-544000</c:v>
+                  <c:v>-67000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-873000</c:v>
+                  <c:v>-132300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1334300</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1862900</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2458800</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3122000</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3852500</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4650300</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5515400</c:v>
+                  <c:v>-67300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6447800</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="#,##0">
-                  <c:v>-7499200</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0">
-                  <c:v>-8669600</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,##0">
-                  <c:v>-10427000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0">
-                  <c:v>-12430900</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="#,##0">
-                  <c:v>-14457300</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0">
-                  <c:v>-16168200</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="#,##0">
-                  <c:v>-17685100</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="#,##0">
-                  <c:v>-18712500</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="#,##0">
-                  <c:v>-19749400</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="#,##0">
-                  <c:v>-20145800</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="#,##0">
-                  <c:v>-20495700</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="#,##0">
-                  <c:v>-20388600</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="#,##0">
-                  <c:v>-20447500</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="#,##0">
-                  <c:v>-20625400</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="#,##0">
-                  <c:v>-21390300</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="#,##0">
-                  <c:v>-22354700</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="#,##0">
-                  <c:v>-23341600</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="#,##0">
-                  <c:v>-24013000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="#,##0">
-                  <c:v>-24490400</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="#,##0">
-                  <c:v>-24478300</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="#,##0">
-                  <c:v>-24475700</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="#,##0">
-                  <c:v>-23832600</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="#,##0">
-                  <c:v>-23143000</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="#,##0">
-                  <c:v>-21996400</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="#,##0">
-                  <c:v>-21016300</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="#,##0">
-                  <c:v>-20155700</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="#,##0">
-                  <c:v>-19882600</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="#,##0">
-                  <c:v>-19809500</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="#,##0">
-                  <c:v>-19759400</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="#,##0">
-                  <c:v>-19394300</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="#,##0">
-                  <c:v>-18835700</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="#,##0">
-                  <c:v>-17788100</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="#,##0">
-                  <c:v>-16750500</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="#,##0">
-                  <c:v>-15072900</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="#,##0">
-                  <c:v>-13349300</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="#,##0">
-                  <c:v>-11169200</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="#,##0">
-                  <c:v>-9166100</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="#,##0">
-                  <c:v>-7293000</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="#,##0">
-                  <c:v>-6017900</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="#,##0">
-                  <c:v>-4953300</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="#,##0">
-                  <c:v>-3922200</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="#,##0">
-                  <c:v>-2586600</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="#,##0">
-                  <c:v>-1068000</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="#,##0">
-                  <c:v>929100</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="#,##0">
-                  <c:v>2905700</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="#,##0">
-                  <c:v>5511800</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="#,##0">
-                  <c:v>8153400</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="#,##0">
-                  <c:v>11241000</c:v>
+                  <c:v>-119000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-119000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-587000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-246500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-22500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>315500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>489500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>640500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>457000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-166000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-119000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-587000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-199500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-22500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>315500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>194000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>489500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>640500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>457000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-166500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-119500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-587500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-200000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-23000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>315000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>193500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>489000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-10000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>456500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-177000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-130000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-598000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-210500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-33500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>304500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>478500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-20500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>629500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>446000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,7 +1659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-340B-489F-BC3F-765793443DD3}"/>
+              <c16:uniqueId val="{00000000-75B0-4F1F-9C5F-62F6D223117E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1712,13 +1671,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1042707344"/>
-        <c:axId val="1042566224"/>
+        <c:axId val="1776270127"/>
+        <c:axId val="1776264847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1042707344"/>
+        <c:axId val="1776270127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1736,6 +1696,104 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="880" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>time (months)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.87121478799107333"/>
+              <c:y val="0.56410688821377641"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1744,10 +1802,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1773,12 +1828,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042566224"/>
+        <c:crossAx val="1776264847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1042566224"/>
+        <c:axId val="1776264847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,15 +1887,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cumul.</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1850,36 +1897,6 @@
                   </a:rPr>
                   <a:t>EBITDA ($)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1926,7 +1943,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1963,7 +1980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042707344"/>
+        <c:crossAx val="1776270127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2009,7 +2026,562 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cash</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Flow Trend</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cash flow'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cash </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cash flow'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cash flow'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1072400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>773600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>821600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-284000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D9F-460B-9F92-107F3D061131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cash flow'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative cash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cash flow'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cash flow'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1072400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-298800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1339600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1055600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D9F-460B-9F92-107F3D061131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1871574319"/>
+        <c:axId val="1871574799"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1871574319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (years)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50967780327338164"/>
+              <c:y val="0.57025590551181116"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871574799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1871574799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cash</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  Flow ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871574319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2054,6 +2626,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3125,6 +3737,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3135,10 +4252,10 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3165,23 +4282,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1445F461-74BA-C2F4-73D0-2E29D3A432A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6640BE-A1D7-CFD3-36A0-B282F0DF4B95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,47 +4320,44 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.44601</cdr:x>
-      <cdr:y>0.50365</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.58311</cdr:x>
-      <cdr:y>0.57081</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D68688-6E68-F2E7-91C4-EF41FE5BDAD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7010DB6-8D77-D1D6-DC84-3EB23ABED3A3}"/>
             </a:ext>
           </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2895600" y="2103120"/>
-          <a:ext cx="890093" cy="280440"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3511,43 +4625,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
@@ -3592,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3609,28 +4723,28 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3676,9 +4790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>5250</v>
@@ -3723,9 +4837,9 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:N7" si="0">B5*B6</f>
@@ -3784,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3801,28 +4915,28 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -3868,9 +4982,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -3926,9 +5040,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3978,9 +5092,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <f>SUM(B10:B12)</f>
@@ -4039,7 +5153,7 @@
         <v>67400</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4056,28 +5170,28 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -4123,9 +5237,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -4171,9 +5285,9 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -4219,9 +5333,9 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -4267,9 +5381,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -4315,9 +5429,9 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -4363,9 +5477,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -4411,9 +5525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -4459,9 +5573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4507,9 +5621,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4555,9 +5669,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ref="B26:N26" si="6">SUM(B16:B25)</f>
@@ -4616,7 +5730,7 @@
         <v>738000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4633,28 +5747,28 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:N29" si="8">B13+B26</f>
@@ -4713,9 +5827,9 @@
         <v>932400</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30:N30" si="9">B7-B29</f>
@@ -4774,9 +5888,9 @@
         <v>-932400</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <f>B30</f>
@@ -4832,7 +5946,7 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4849,7 +5963,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4866,7 +5980,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4883,7 +5997,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4900,7 +6014,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4917,7 +6031,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4934,7 +6048,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4951,7 +6065,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4968,7 +6082,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4985,7 +6099,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5002,7 +6116,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5019,7 +6133,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5036,7 +6150,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5053,7 +6167,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5070,7 +6184,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5087,7 +6201,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5104,7 +6218,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5121,7 +6235,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5138,7 +6252,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5155,7 +6269,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5172,7 +6286,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5189,7 +6303,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5206,7 +6320,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5223,7 +6337,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5258,46 +6372,46 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
@@ -5342,7 +6456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5359,28 +6473,28 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -5424,9 +6538,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -5469,9 +6583,9 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -5527,7 +6641,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5544,28 +6658,28 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -5609,9 +6723,9 @@
         <v>422000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -5666,9 +6780,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -5723,9 +6837,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -5781,7 +6895,7 @@
         <v>2722000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5798,28 +6912,28 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -5863,9 +6977,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -5909,9 +7023,9 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1">
@@ -5955,9 +7069,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1">
@@ -6001,9 +7115,9 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1">
@@ -6047,9 +7161,9 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1">
@@ -6093,9 +7207,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1">
@@ -6139,9 +7253,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1">
@@ -6185,9 +7299,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1">
@@ -6231,9 +7345,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
@@ -6277,9 +7391,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -6335,7 +7449,7 @@
         <v>1488500</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6352,28 +7466,28 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -6429,9 +7543,9 @@
         <v>4210500</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -6487,9 +7601,9 @@
         <v>1039500</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>-932400</v>
@@ -6544,76 +7658,76 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
   </sheetData>
@@ -6639,42 +7753,42 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
@@ -6719,7 +7833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6736,28 +7850,28 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -6801,9 +7915,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -6846,9 +7960,9 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -6904,7 +8018,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6921,28 +8035,28 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -6986,9 +8100,9 @@
         <v>422000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -7043,9 +8157,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -7100,9 +8214,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -7158,7 +8272,7 @@
         <v>2722000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7175,28 +8289,28 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -7240,9 +8354,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -7286,9 +8400,9 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1">
@@ -7332,9 +8446,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1">
@@ -7378,9 +8492,9 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1">
@@ -7436,9 +8550,9 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1">
@@ -7482,9 +8596,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1">
@@ -7528,9 +8642,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1">
@@ -7574,9 +8688,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1">
@@ -7620,9 +8734,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
@@ -7666,9 +8780,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -7724,7 +8838,7 @@
         <v>1488500</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7741,28 +8855,28 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -7818,9 +8932,9 @@
         <v>4210500</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -7876,9 +8990,9 @@
         <v>1039500</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>107100</v>
@@ -7933,76 +9047,76 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
   </sheetData>
@@ -8021,47 +9135,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D32EBB5-AB8A-4350-B7D5-D66BD237FE8F}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
@@ -8106,7 +9220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8123,28 +9237,28 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -8188,9 +9302,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -8233,9 +9347,9 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -8291,7 +9405,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8308,28 +9422,28 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -8373,9 +9487,9 @@
         <v>422000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -8430,9 +9544,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -8487,9 +9601,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -8545,7 +9659,7 @@
         <v>2722000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8562,28 +9676,28 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -8627,9 +9741,9 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -8673,9 +9787,9 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1">
@@ -8719,9 +9833,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1">
@@ -8765,9 +9879,9 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1">
@@ -8811,9 +9925,9 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1">
@@ -8857,9 +9971,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1">
@@ -8903,9 +10017,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1">
@@ -8949,9 +10063,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1">
@@ -8995,9 +10109,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
@@ -9041,9 +10155,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -9099,7 +10213,7 @@
         <v>1494500</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9116,28 +10230,28 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -9193,9 +10307,9 @@
         <v>4216500</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -9251,9 +10365,9 @@
         <v>1033500</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>1146600</v>
@@ -9308,76 +10422,76 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
   </sheetData>
@@ -9396,47 +10510,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31AAED3-B9E2-4127-95BD-3B85B0E10D67}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
@@ -9481,7 +10595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9498,28 +10612,28 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -9563,9 +10677,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -9608,9 +10722,9 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -9666,7 +10780,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -9683,28 +10797,28 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -9748,9 +10862,9 @@
         <v>422000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -9805,9 +10919,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -9862,9 +10976,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -9920,7 +11034,7 @@
         <v>2722000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9937,28 +11051,28 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -10002,9 +11116,9 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -10048,9 +11162,9 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1">
@@ -10094,9 +11208,9 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1">
@@ -10140,9 +11254,9 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1">
@@ -10198,9 +11312,9 @@
         <v>966000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1">
@@ -10244,9 +11358,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1">
@@ -10290,9 +11404,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1">
@@ -10336,9 +11450,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1">
@@ -10382,9 +11496,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
@@ -10428,9 +11542,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -10486,7 +11600,7 @@
         <v>1620500</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10503,28 +11617,28 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -10580,9 +11694,9 @@
         <v>4342500</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -10638,9 +11752,9 @@
         <v>907500</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>2180100</v>
@@ -10695,76 +11809,76 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
   </sheetData>
@@ -10781,1134 +11895,1185 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA52E62-D0A4-4824-A3BD-B95A2276AF40}">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13" style="9" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    <row r="1" spans="1:2" ht="57.6">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>-85000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>-197000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>-262000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:2">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>-329000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>-461300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>-528600</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>-595900</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>-663200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>-730500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>-797800</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>-865100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:2">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>-932400</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>-1051400</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:2">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>-1170400</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    <row r="17" spans="1:2">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>-1757400</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:2">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>-2003900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    <row r="19" spans="1:2">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <v>-2026400</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+    <row r="20" spans="1:2">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>-1710900</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    <row r="21" spans="1:2">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>-1516900</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+    <row r="22" spans="1:2">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>-1027400</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+    <row r="23" spans="1:2">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <v>-1036900</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+    <row r="24" spans="1:2">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>-396400</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+    <row r="25" spans="1:2">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="9">
         <v>-349900</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    <row r="26" spans="1:2">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="9">
         <v>107100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+    <row r="27" spans="1:2">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="9">
         <v>-58900</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+    <row r="28" spans="1:2">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="9">
         <v>-177900</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+    <row r="29" spans="1:2">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="9">
         <v>-764900</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+    <row r="30" spans="1:2">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="9">
         <v>-964400</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+    <row r="31" spans="1:2">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="9">
         <v>-986900</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+    <row r="32" spans="1:2">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="9">
         <v>-671400</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+    <row r="33" spans="1:2">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="9">
         <v>-477400</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+    <row r="34" spans="1:2">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="9">
         <v>12100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+    <row r="35" spans="1:2">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="9">
         <v>2600</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+    <row r="36" spans="1:2">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="9">
         <v>643100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+    <row r="37" spans="1:2">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="9">
         <v>689600</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+    <row r="38" spans="1:2">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="9">
         <v>1146600</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+    <row r="39" spans="1:2">
+      <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="9">
         <v>980100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+    <row r="40" spans="1:2">
+      <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="9">
         <v>860600</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+    <row r="41" spans="1:2">
+      <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="9">
         <v>273100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+    <row r="42" spans="1:2">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="9">
         <v>73100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+    <row r="43" spans="1:2">
+      <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="9">
         <v>50100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+    <row r="44" spans="1:2">
+      <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="9">
         <v>365100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+    <row r="45" spans="1:2">
+      <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="9">
         <v>558600</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+    <row r="46" spans="1:2">
+      <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="9">
         <v>1047600</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+    <row r="47" spans="1:2">
+      <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="9">
         <v>1037600</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+    <row r="48" spans="1:2">
+      <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="9">
         <v>1677600</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+    <row r="49" spans="1:2">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="9">
         <v>1723600</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+    <row r="50" spans="1:2">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="9">
         <v>2180100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+    <row r="51" spans="1:2">
+      <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="9">
         <v>2003100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+    <row r="52" spans="1:2">
+      <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="9">
         <v>1873100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+    <row r="53" spans="1:2">
+      <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="9">
         <v>1275100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+    <row r="54" spans="1:2">
+      <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="9">
         <v>1064600</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+    <row r="55" spans="1:2">
+      <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="9">
         <v>1031100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+    <row r="56" spans="1:2">
+      <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="9">
         <v>1335600</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+    <row r="57" spans="1:2">
+      <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="9">
         <v>1518600</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+    <row r="58" spans="1:2">
+      <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="9">
         <v>1997100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+    <row r="59" spans="1:2">
+      <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="9">
         <v>1976600</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+    <row r="60" spans="1:2">
+      <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="9">
         <v>2606100</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+    <row r="61" spans="1:2">
+      <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="9">
         <v>2641600</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+    <row r="62" spans="1:2">
+      <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="9">
         <v>3087600</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:18">
+      <c r="A65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="28.9">
+      <c r="A66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <f>'Year 1'!$C$30</f>
+        <v>-85000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="9">
+        <f>A67+1</f>
+        <v>2</v>
+      </c>
+      <c r="B68" s="4">
+        <f>'Year 1'!$D$30</f>
+        <v>-112000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="9">
+        <f t="shared" ref="A69:A126" si="0">A68+1</f>
+        <v>3</v>
+      </c>
+      <c r="B69" s="4">
+        <f>'Year 1'!$E$30</f>
+        <v>-65000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B70" s="4">
+        <f>'Year 1'!$F$30</f>
+        <v>-67000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B71" s="4">
+        <f>'Year 1'!$G$30</f>
+        <v>-132300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B72" s="4">
+        <f>'Year 1'!$H$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B73" s="4">
+        <f>'Year 1'!$I$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B74" s="4">
+        <f>'Year 1'!$J$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B75" s="4">
+        <f>'Year 1'!$K$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B76" s="4">
+        <f>'Year 1'!$L$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B77" s="4">
+        <f>'Year 1'!$M$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B78" s="4">
+        <f>'Year 1'!$N$30</f>
+        <v>-67300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B79" s="4">
+        <f>'Year 2'!$C$30</f>
+        <v>-119000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B80" s="4">
+        <f>'Year 2'!$D$30</f>
+        <v>-119000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B81" s="4">
+        <f>'Year 2'!$E$30</f>
+        <v>-587000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B82" s="4">
+        <f>'Year 2'!$F$30</f>
+        <v>-246500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B83" s="4">
+        <f>'Year 2'!$G$30</f>
+        <v>-22500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B84" s="4">
+        <f>'Year 2'!$H$30</f>
+        <v>315500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B85" s="4">
+        <f>'Year 2'!$I$30</f>
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B86" s="4">
+        <f>'Year 2'!$J$30</f>
+        <v>489500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B87" s="4">
+        <f>'Year 2'!$K$30</f>
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B88" s="4">
+        <f>'Year 2'!$L$30</f>
+        <v>640500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B89" s="4">
+        <f>'Year 2'!$M$30</f>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B90" s="4">
+        <f>'Year 2'!$N$30</f>
+        <v>457000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B91" s="4">
+        <f>'Year 3'!$C$30</f>
+        <v>-166000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B92" s="4">
+        <f>'Year 3'!$D$30</f>
+        <v>-119000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B93" s="4">
+        <f>'Year 3'!$E$30</f>
+        <v>-587000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B94" s="4">
+        <f>'Year 3'!$F$30</f>
+        <v>-199500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B95" s="4">
+        <f>'Year 3'!$G$30</f>
+        <v>-22500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B96" s="4">
+        <f>'Year 3'!$H$30</f>
+        <v>315500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B97" s="4">
+        <f>'Year 3'!$I$30</f>
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B98" s="4">
+        <f>'Year 3'!$J$30</f>
+        <v>489500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B99" s="4">
+        <f>'Year 3'!$K$30</f>
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B100" s="4">
+        <f>'Year 3'!$L$30</f>
+        <v>640500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B101" s="4">
+        <f>'Year 3'!$M$30</f>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B102" s="4">
+        <f>'Year 3'!$N$30</f>
+        <v>457000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B103" s="4">
+        <f>'Year 4'!$C$30</f>
+        <v>-166500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B104" s="4">
+        <f>'Year 4'!$D$30</f>
+        <v>-119500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B105" s="4">
+        <f>'Year 4'!$E$30</f>
+        <v>-587500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B106" s="4">
+        <f>'Year 4'!$F$30</f>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B107" s="4">
+        <f>'Year 4'!$G$30</f>
+        <v>-23000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B108" s="4">
+        <f>'Year 4'!$H$30</f>
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B109" s="4">
+        <f>'Year 4'!$I$30</f>
+        <v>193500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B110" s="4">
+        <f>'Year 4'!$J$30</f>
+        <v>489000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B111" s="4">
+        <f>'Year 4'!$K$30</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B112" s="4">
+        <f>'Year 4'!$L$30</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B113" s="4">
+        <f>'Year 4'!$M$30</f>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R65" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="15" t="s">
+      <c r="B114" s="4">
+        <f>'Year 4'!$N$30</f>
+        <v>456500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
-        <v>0</v>
-      </c>
-      <c r="B67" s="13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
-        <v>1</v>
-      </c>
-      <c r="B68" s="13">
-        <f>(B67+B3)</f>
-        <v>-85000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
-        <v>2</v>
-      </c>
-      <c r="B69" s="13">
-        <f>(B68+B4)</f>
-        <v>-282000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
-        <v>3</v>
-      </c>
-      <c r="B70" s="13">
-        <f>(B69+B5)</f>
-        <v>-544000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
-        <v>4</v>
-      </c>
-      <c r="B71" s="13">
-        <f>(B70+B6)</f>
-        <v>-873000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>5</v>
-      </c>
-      <c r="B72" s="13">
-        <f>(B71+B7)</f>
-        <v>-1334300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
-        <v>6</v>
-      </c>
-      <c r="B73" s="13">
-        <f>(B72+B8)</f>
-        <v>-1862900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
-        <v>7</v>
-      </c>
-      <c r="B74" s="13">
-        <f>(B73+B9)</f>
-        <v>-2458800</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
-        <v>8</v>
-      </c>
-      <c r="B75" s="13">
-        <f>(B74+B10)</f>
-        <v>-3122000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
-        <v>9</v>
-      </c>
-      <c r="B76" s="13">
-        <f>(B75+B11)</f>
-        <v>-3852500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
-        <v>10</v>
-      </c>
-      <c r="B77" s="13">
-        <f>(B76+B12)</f>
-        <v>-4650300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
-        <v>11</v>
-      </c>
-      <c r="B78" s="13">
-        <f>(B77+B13)</f>
-        <v>-5515400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="13">
-        <v>12</v>
-      </c>
-      <c r="B79" s="13">
-        <f>(B78+B14)</f>
-        <v>-6447800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
-        <v>13</v>
-      </c>
-      <c r="B80" s="4">
-        <f>(B79+B15)</f>
-        <v>-7499200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="13">
-        <v>14</v>
-      </c>
-      <c r="B81" s="4">
-        <f>(B80+B16)</f>
-        <v>-8669600</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
-        <v>15</v>
-      </c>
-      <c r="B82" s="4">
-        <f>(B81+B17)</f>
-        <v>-10427000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
-        <v>16</v>
-      </c>
-      <c r="B83" s="4">
-        <f>(B82+B18)</f>
-        <v>-12430900</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
-        <v>17</v>
-      </c>
-      <c r="B84" s="4">
-        <f>(B83+B19)</f>
-        <v>-14457300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
-        <v>18</v>
-      </c>
-      <c r="B85" s="4">
-        <f>(B84+B20)</f>
-        <v>-16168200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
-        <v>19</v>
-      </c>
-      <c r="B86" s="4">
-        <f>(B85+B21)</f>
-        <v>-17685100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="13">
-        <v>20</v>
-      </c>
-      <c r="B87" s="4">
-        <f>(B86+B22)</f>
-        <v>-18712500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
-        <v>21</v>
-      </c>
-      <c r="B88" s="4">
-        <f>(B87+B23)</f>
-        <v>-19749400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="13">
-        <v>22</v>
-      </c>
-      <c r="B89" s="4">
-        <f>(B88+B24)</f>
-        <v>-20145800</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
-        <v>23</v>
-      </c>
-      <c r="B90" s="4">
-        <f>(B89+B25)</f>
-        <v>-20495700</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="13">
-        <v>24</v>
-      </c>
-      <c r="B91" s="4">
-        <f>(B90+B26)</f>
-        <v>-20388600</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
-        <v>25</v>
-      </c>
-      <c r="B92" s="4">
-        <f>(B91+B27)</f>
-        <v>-20447500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="13">
-        <v>26</v>
-      </c>
-      <c r="B93" s="4">
-        <f>(B92+B28)</f>
-        <v>-20625400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
-        <v>27</v>
-      </c>
-      <c r="B94" s="4">
-        <f>(B93+B29)</f>
-        <v>-21390300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="13">
-        <v>28</v>
-      </c>
-      <c r="B95" s="4">
-        <f>(B94+B30)</f>
-        <v>-22354700</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="13">
-        <v>29</v>
-      </c>
-      <c r="B96" s="4">
-        <f>(B95+B31)</f>
-        <v>-23341600</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="13">
-        <v>30</v>
-      </c>
-      <c r="B97" s="4">
-        <f>(B96+B32)</f>
-        <v>-24013000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
-        <v>31</v>
-      </c>
-      <c r="B98" s="4">
-        <f>(B97+B33)</f>
-        <v>-24490400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="13">
-        <v>32</v>
-      </c>
-      <c r="B99" s="4">
-        <f>(B98+B34)</f>
-        <v>-24478300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
-        <v>33</v>
-      </c>
-      <c r="B100" s="4">
-        <f>(B99+B35)</f>
-        <v>-24475700</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="13">
-        <v>34</v>
-      </c>
-      <c r="B101" s="4">
-        <f>(B100+B36)</f>
-        <v>-23832600</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
-        <v>35</v>
-      </c>
-      <c r="B102" s="4">
-        <f>(B101+B37)</f>
-        <v>-23143000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="13">
-        <v>36</v>
-      </c>
-      <c r="B103" s="4">
-        <f>(B102+B38)</f>
-        <v>-21996400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="13">
-        <v>37</v>
-      </c>
-      <c r="B104" s="4">
-        <f>(B103+B39)</f>
-        <v>-21016300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="13">
-        <v>38</v>
-      </c>
-      <c r="B105" s="4">
-        <f>(B104+B40)</f>
-        <v>-20155700</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
-        <v>39</v>
-      </c>
-      <c r="B106" s="4">
-        <f>(B105+B41)</f>
-        <v>-19882600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="13">
-        <v>40</v>
-      </c>
-      <c r="B107" s="4">
-        <f>(B106+B42)</f>
-        <v>-19809500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
-        <v>41</v>
-      </c>
-      <c r="B108" s="4">
-        <f>(B107+B43)</f>
-        <v>-19759400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="13">
-        <v>42</v>
-      </c>
-      <c r="B109" s="4">
-        <f>(B108+B44)</f>
-        <v>-19394300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
-        <v>43</v>
-      </c>
-      <c r="B110" s="4">
-        <f>(B109+B45)</f>
-        <v>-18835700</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="13">
-        <v>44</v>
-      </c>
-      <c r="B111" s="4">
-        <f>(B110+B46)</f>
-        <v>-17788100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="13">
-        <v>45</v>
-      </c>
-      <c r="B112" s="4">
-        <f>(B111+B47)</f>
-        <v>-16750500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="13">
-        <v>46</v>
-      </c>
-      <c r="B113" s="4">
-        <f>(B112+B48)</f>
-        <v>-15072900</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
-        <v>47</v>
-      </c>
-      <c r="B114" s="4">
-        <f>(B113+B49)</f>
-        <v>-13349300</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="13">
-        <v>48</v>
-      </c>
       <c r="B115" s="4">
-        <f>(B114+B50)</f>
-        <v>-11169200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
-        <v>49</v>
+        <f>'Year 5'!$C$30</f>
+        <v>-177000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B116" s="4">
-        <f>(B115+B51)</f>
-        <v>-9166100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="13">
-        <v>50</v>
+        <f>'Year 5'!$D$30</f>
+        <v>-130000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B117" s="4">
-        <f>(B116+B52)</f>
-        <v>-7293000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
-        <v>51</v>
+        <f>'Year 5'!$E$30</f>
+        <v>-598000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="9">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B118" s="4">
-        <f>(B117+B53)</f>
-        <v>-6017900</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="13">
-        <v>52</v>
+        <f>'Year 5'!$F$30</f>
+        <v>-210500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="9">
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B119" s="4">
-        <f>(B118+B54)</f>
-        <v>-4953300</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="13">
-        <v>53</v>
+        <f>'Year 5'!$G$30</f>
+        <v>-33500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B120" s="4">
-        <f>(B119+B55)</f>
-        <v>-3922200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="13">
-        <v>54</v>
+        <f>'Year 5'!$H$30</f>
+        <v>304500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="9">
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B121" s="4">
-        <f>(B120+B56)</f>
-        <v>-2586600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
-        <v>55</v>
+        <f>'Year 5'!$I$30</f>
+        <v>183000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="9">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B122" s="4">
-        <f>(B121+B57)</f>
-        <v>-1068000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="13">
-        <v>56</v>
+        <f>'Year 5'!$J$30</f>
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="9">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B123" s="4">
-        <f>(B122+B58)</f>
-        <v>929100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="13">
-        <v>57</v>
+        <f>'Year 5'!$K$30</f>
+        <v>-20500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="9">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B124" s="4">
-        <f>(B123+B59)</f>
-        <v>2905700</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="13">
-        <v>58</v>
+        <f>'Year 5'!$L$30</f>
+        <v>629500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="9">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B125" s="4">
-        <f>(B124+B60)</f>
-        <v>5511800</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
-        <v>59</v>
+        <f>'Year 5'!$M$30</f>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="9">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B126" s="4">
-        <f>(B125+B61)</f>
-        <v>8153400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="13">
-        <v>60</v>
-      </c>
-      <c r="B127" s="4">
-        <f>(B126+B62)</f>
-        <v>11241000</v>
+        <f>'Year 5'!$N$30</f>
+        <v>446000</v>
       </c>
     </row>
   </sheetData>
@@ -11925,17 +13090,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="1"/>
-    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -11953,9 +13118,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>60000</v>
@@ -11973,24 +13138,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>200000</v>
@@ -12008,19 +13173,19 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -12042,9 +13207,9 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <f>B6</f>
@@ -12067,9 +13232,9 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <f>-B10</f>
@@ -12092,9 +13257,9 @@
         <v>-47500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <f>B13+B14</f>
@@ -12117,7 +13282,7 @@
         <v>1202500</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -12138,17 +13303,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -12166,9 +13331,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7">
         <f>'Year 1'!$O$30</f>
@@ -12191,7 +13356,7 @@
         <v>907500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -12211,9 +13376,9 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6">
         <f>B2-B3</f>
@@ -12236,9 +13401,9 @@
         <v>895000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12256,9 +13421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12268,7 +13433,7 @@
         <v>205900</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="B6:F6" si="1">20% * D4</f>
+        <f t="shared" ref="D6:F6" si="1">20% * D4</f>
         <v>205400</v>
       </c>
       <c r="E6">
@@ -12280,7 +13445,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
@@ -12315,20 +13480,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8">
         <v>1</v>
@@ -12346,9 +13511,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>60000</v>
@@ -12366,9 +13531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -12376,9 +13541,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>-200000</v>
@@ -12396,9 +13561,9 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>-932400</v>
@@ -12416,9 +13581,9 @@
         <v>716000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B2:B5)</f>
@@ -12441,9 +13606,9 @@
         <v>-284000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <f>B6</f>
@@ -12471,5 +13636,6 @@
   <ignoredErrors>
     <ignoredError sqref="B6" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>